--- a/docs/sprintPlanningDocs/Burndown Charts.xlsx
+++ b/docs/sprintPlanningDocs/Burndown Charts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1School\Current\CS3450\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1School\Current\CS3450\project\Frappuccino-Paradise-Group-3\docs\sprintPlanningDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ADA02D-8CCE-4C1A-B156-28EF80A360F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87775EB6-950F-4410-83A3-E082C90B2368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0F47FC58-1A0E-4063-B41B-EBCD7C635924}"/>
   </bookViews>
@@ -268,28 +268,6 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <numFmt numFmtId="17" formatCode="#\ ?/?"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -315,6 +293,28 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="17" formatCode="#\ ?/?"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -3446,8 +3446,8 @@
     <tableColumn id="3" xr3:uid="{69E08911-984F-48ED-B49C-C9EDBC14C869}" name="Planned Story Points" dataDxfId="2">
       <calculatedColumnFormula>C1/15*14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6D4A6FC8-B4E0-4890-8B06-FEE994D65D90}" name="Completed Story Points" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{9FFA326B-616D-475D-ADCC-FD4B4CD75701}" name="Remaining Story Points" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{6D4A6FC8-B4E0-4890-8B06-FEE994D65D90}" name="Completed Story Points" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{9FFA326B-616D-475D-ADCC-FD4B4CD75701}" name="Remaining Story Points" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4111,7 +4111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F0F6DE-9EAC-400A-8B3B-88CDED714D05}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>

--- a/docs/sprintPlanningDocs/Burndown Charts.xlsx
+++ b/docs/sprintPlanningDocs/Burndown Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1School\Current\CS3450\project\Frappuccino-Paradise-Group-3\docs\sprintPlanningDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87775EB6-950F-4410-83A3-E082C90B2368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64119831-C4F0-4158-8C8A-AB933CBBC926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0F47FC58-1A0E-4063-B41B-EBCD7C635924}"/>
   </bookViews>
@@ -4112,7 +4112,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/docs/sprintPlanningDocs/Burndown Charts.xlsx
+++ b/docs/sprintPlanningDocs/Burndown Charts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1School\Current\CS3450\project\Frappuccino-Paradise-Group-3\docs\sprintPlanningDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logan\Documents\Homework\cs3450\Frappuccino-Paradise-Group-3\docs\sprintPlanningDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64119831-C4F0-4158-8C8A-AB933CBBC926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C78B42F-155B-43AE-8F8E-8681032DC95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0F47FC58-1A0E-4063-B41B-EBCD7C635924}"/>
+    <workbookView xWindow="7320" yWindow="-60" windowWidth="21600" windowHeight="11175" activeTab="1" xr2:uid="{0F47FC58-1A0E-4063-B41B-EBCD7C635924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="2" r:id="rId1"/>
@@ -111,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -206,17 +206,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -259,7 +248,7 @@
     <xf numFmtId="12" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1392,7 +1381,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 2 Burndown Chart</a:t>
+              <a:t> 5 Burndown Chart</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1473,54 +1462,60 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Sprint 2'!$A$2:$B$16</c:f>
+              <c:f>'Sprint 2'!$A$2:$B$18</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>3-Oct</c:v>
+                    <c:v>31-Oct</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4-Oct</c:v>
+                    <c:v>1-Nov</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5-Oct</c:v>
+                    <c:v>2-Nov</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6-Oct</c:v>
+                    <c:v>3-Nov</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7-Oct</c:v>
+                    <c:v>4-Nov</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8-Oct</c:v>
+                    <c:v>5-Nov</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9-Oct</c:v>
+                    <c:v>6-Nov</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>10-Oct</c:v>
+                    <c:v>7-Nov</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>11-Oct</c:v>
+                    <c:v>8-Nov</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>12-Oct</c:v>
+                    <c:v>9-Nov</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>13-Oct</c:v>
+                    <c:v>10-Nov</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>14-Oct</c:v>
+                    <c:v>11-Nov</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>15-Oct</c:v>
+                    <c:v>12-Nov</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>16-Oct</c:v>
+                    <c:v>13-Nov</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>17-Oct</c:v>
+                    <c:v>14-Nov</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>15-Nov</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>16-Nov</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1575,53 +1570,59 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 2'!$C$2:$C$16</c:f>
+              <c:f>'Sprint 2'!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>#\ ?/?</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.857142857142858</c:v>
+                  <c:v>20.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.714285714285715</c:v>
+                  <c:v>19.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.571428571428569</c:v>
+                  <c:v>17.875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.428571428571427</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.285714285714285</c:v>
+                  <c:v>15.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.142857142857142</c:v>
+                  <c:v>13.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>12.375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.857142857142858</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.714285714285714</c:v>
+                  <c:v>9.625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.5714285714285712</c:v>
+                  <c:v>8.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.4285714285714288</c:v>
+                  <c:v>6.875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.2857142857142856</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.1428571428571428</c:v>
+                  <c:v>4.125</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1674,54 +1675,60 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Sprint 2'!$A$2:$B$16</c:f>
+              <c:f>'Sprint 2'!$A$2:$B$18</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>3-Oct</c:v>
+                    <c:v>31-Oct</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4-Oct</c:v>
+                    <c:v>1-Nov</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5-Oct</c:v>
+                    <c:v>2-Nov</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6-Oct</c:v>
+                    <c:v>3-Nov</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7-Oct</c:v>
+                    <c:v>4-Nov</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8-Oct</c:v>
+                    <c:v>5-Nov</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>9-Oct</c:v>
+                    <c:v>6-Nov</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>10-Oct</c:v>
+                    <c:v>7-Nov</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>11-Oct</c:v>
+                    <c:v>8-Nov</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>12-Oct</c:v>
+                    <c:v>9-Nov</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>13-Oct</c:v>
+                    <c:v>10-Nov</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>14-Oct</c:v>
+                    <c:v>11-Nov</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>15-Oct</c:v>
+                    <c:v>12-Nov</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>16-Oct</c:v>
+                    <c:v>13-Nov</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>17-Oct</c:v>
+                    <c:v>14-Nov</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>15-Nov</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>16-Nov</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1776,54 +1783,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 2'!$E$2:$E$16</c:f>
+              <c:f>'Sprint 2'!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>#\ ?/?</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1899,57 +1912,63 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Sprint 2'!$A$2:$B$16</c15:sqref>
+                          <c15:sqref>'Sprint 2'!$A$2:$B$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:multiLvlStrCache>
-                      <c:ptCount val="15"/>
+                      <c:ptCount val="17"/>
                       <c:lvl>
                         <c:pt idx="0">
-                          <c:v>3-Oct</c:v>
+                          <c:v>31-Oct</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>4-Oct</c:v>
+                          <c:v>1-Nov</c:v>
                         </c:pt>
                         <c:pt idx="2">
-                          <c:v>5-Oct</c:v>
+                          <c:v>2-Nov</c:v>
                         </c:pt>
                         <c:pt idx="3">
-                          <c:v>6-Oct</c:v>
+                          <c:v>3-Nov</c:v>
                         </c:pt>
                         <c:pt idx="4">
-                          <c:v>7-Oct</c:v>
+                          <c:v>4-Nov</c:v>
                         </c:pt>
                         <c:pt idx="5">
-                          <c:v>8-Oct</c:v>
+                          <c:v>5-Nov</c:v>
                         </c:pt>
                         <c:pt idx="6">
-                          <c:v>9-Oct</c:v>
+                          <c:v>6-Nov</c:v>
                         </c:pt>
                         <c:pt idx="7">
-                          <c:v>10-Oct</c:v>
+                          <c:v>7-Nov</c:v>
                         </c:pt>
                         <c:pt idx="8">
-                          <c:v>11-Oct</c:v>
+                          <c:v>8-Nov</c:v>
                         </c:pt>
                         <c:pt idx="9">
-                          <c:v>12-Oct</c:v>
+                          <c:v>9-Nov</c:v>
                         </c:pt>
                         <c:pt idx="10">
-                          <c:v>13-Oct</c:v>
+                          <c:v>10-Nov</c:v>
                         </c:pt>
                         <c:pt idx="11">
-                          <c:v>14-Oct</c:v>
+                          <c:v>11-Nov</c:v>
                         </c:pt>
                         <c:pt idx="12">
-                          <c:v>15-Oct</c:v>
+                          <c:v>12-Nov</c:v>
                         </c:pt>
                         <c:pt idx="13">
-                          <c:v>16-Oct</c:v>
+                          <c:v>13-Nov</c:v>
                         </c:pt>
                         <c:pt idx="14">
-                          <c:v>17-Oct</c:v>
+                          <c:v>14-Nov</c:v>
+                        </c:pt>
+                        <c:pt idx="15">
+                          <c:v>15-Nov</c:v>
+                        </c:pt>
+                        <c:pt idx="16">
+                          <c:v>16-Nov</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -2007,48 +2026,39 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Sprint 2'!$D$2:$D$16</c15:sqref>
+                          <c15:sqref>'Sprint 2'!$D$2:$D$18</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>#\ ?/?</c:formatCode>
-                      <c:ptCount val="15"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
                       </c:pt>
-                      <c:pt idx="1">
+                      <c:pt idx="3">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
                         <c:v>1</c:v>
                       </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>3</c:v>
-                      </c:pt>
                       <c:pt idx="9">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>3</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>3</c:v>
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3345,13 +3355,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
+      <xdr:colOff>280986</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
@@ -3386,13 +3396,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
+      <xdr:colOff>289558</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>79057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>155257</xdr:rowOff>
     </xdr:to>
@@ -3438,8 +3448,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{70E70ADA-937D-4EFC-9296-6912580473AF}" name="Table2" displayName="Table2" ref="A1:E16" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E16" xr:uid="{70E70ADA-937D-4EFC-9296-6912580473AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{70E70ADA-937D-4EFC-9296-6912580473AF}" name="Table2" displayName="Table2" ref="A1:E18" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E18" xr:uid="{70E70ADA-937D-4EFC-9296-6912580473AF}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{4C2531C3-FF44-4F42-A341-3F36C8BF171B}" name="Day" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{B7844AAC-A380-42A0-ACF0-B1F87E2A81AD}" name="Dates" dataDxfId="3"/>
@@ -3756,12 +3766,12 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3776,7 +3786,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3791,7 +3801,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3806,7 +3816,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3821,7 +3831,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3836,7 +3846,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3851,7 +3861,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -3866,7 +3876,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -3881,7 +3891,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -3896,7 +3906,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -3911,7 +3921,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -3926,7 +3936,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -3941,7 +3951,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -3956,146 +3966,146 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E35" s="1"/>
     </row>
   </sheetData>
@@ -4109,22 +4119,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F0F6DE-9EAC-400A-8B3B-88CDED714D05}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.6640625" style="1"/>
-    <col min="3" max="3" width="22.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="17.6640625" style="1"/>
+    <col min="1" max="2" width="17.7109375" style="1"/>
+    <col min="3" max="3" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="17.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4141,282 +4151,305 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>44837</v>
+        <v>44865</v>
       </c>
       <c r="C2" s="4">
-        <v>30</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D2" s="12"/>
       <c r="E2" s="11">
         <f>Table2[[#This Row],[Planned Story Points]]-Table2[[#This Row],[Completed Story Points]]</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>44838</v>
+        <v>44866</v>
       </c>
       <c r="C3" s="4">
-        <f>C2/14*13</f>
-        <v>27.857142857142858</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
+        <f>C2/16*15</f>
+        <v>20.625</v>
+      </c>
+      <c r="D3" s="12"/>
       <c r="E3" s="11">
         <f>E2-Table2[[#This Row],[Completed Story Points]]</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>44839</v>
+        <v>44867</v>
       </c>
       <c r="C4" s="4">
-        <f>C2/14*12</f>
-        <v>25.714285714285715</v>
+        <f>C2/16*14</f>
+        <v>19.25</v>
       </c>
       <c r="D4" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="11">
         <f>E3-Table2[[#This Row],[Completed Story Points]]</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>44840</v>
+        <v>44868</v>
       </c>
       <c r="C5" s="4">
-        <f>C2/14*11</f>
-        <v>23.571428571428569</v>
+        <f>C2/16*13</f>
+        <v>17.875</v>
       </c>
       <c r="D5" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="11">
         <f>E4-Table2[[#This Row],[Completed Story Points]]</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>44841</v>
+        <v>44869</v>
       </c>
       <c r="C6" s="4">
-        <f>C2/14*10</f>
-        <v>21.428571428571427</v>
+        <f>C2/16*12</f>
+        <v>16.5</v>
       </c>
       <c r="D6" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="11">
         <f>E5-Table2[[#This Row],[Completed Story Points]]</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>44842</v>
+        <v>44870</v>
       </c>
       <c r="C7" s="4">
-        <f>C2/14*9</f>
-        <v>19.285714285714285</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
+        <f>C2/16*11</f>
+        <v>15.125</v>
+      </c>
+      <c r="D7" s="12"/>
       <c r="E7" s="11">
         <f>E6-Table2[[#This Row],[Completed Story Points]]</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>44843</v>
+        <v>44871</v>
       </c>
       <c r="C8" s="4">
-        <f>C2/14*8</f>
-        <v>17.142857142857142</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
+        <f>C2/16*10</f>
+        <v>13.75</v>
+      </c>
+      <c r="D8" s="12"/>
       <c r="E8" s="11">
         <f>E7-Table2[[#This Row],[Completed Story Points]]</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>44844</v>
+        <v>44872</v>
       </c>
       <c r="C9" s="4">
-        <f>C2/14*7</f>
-        <v>15</v>
+        <f>C2/16*9</f>
+        <v>12.375</v>
       </c>
       <c r="D9" s="12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E9" s="11">
         <f>E8-Table2[[#This Row],[Completed Story Points]]</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>44845</v>
+        <v>44873</v>
       </c>
       <c r="C10" s="4">
-        <f>C2/14*6</f>
-        <v>12.857142857142858</v>
+        <f>C2/16*8</f>
+        <v>11</v>
       </c>
       <c r="D10" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="11">
         <f>E9-Table2[[#This Row],[Completed Story Points]]</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>44846</v>
+        <v>44874</v>
       </c>
       <c r="C11" s="4">
-        <f>C2/14*5</f>
-        <v>10.714285714285714</v>
+        <f>C2/16*7</f>
+        <v>9.625</v>
       </c>
       <c r="D11" s="12">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E11" s="11">
         <f>E10-Table2[[#This Row],[Completed Story Points]]</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>44847</v>
+        <v>44875</v>
       </c>
       <c r="C12" s="4">
-        <f>C2/14*4</f>
-        <v>8.5714285714285712</v>
-      </c>
-      <c r="D12" s="12">
-        <v>3</v>
-      </c>
+        <f>C2/16*6</f>
+        <v>8.25</v>
+      </c>
+      <c r="D12" s="12"/>
       <c r="E12" s="11">
         <f>E11-Table2[[#This Row],[Completed Story Points]]</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>44848</v>
+        <v>44876</v>
       </c>
       <c r="C13" s="4">
-        <f>C2/14*3</f>
-        <v>6.4285714285714288</v>
+        <f>C2/16*5</f>
+        <v>6.875</v>
       </c>
       <c r="D13" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="11">
         <f>E12-Table2[[#This Row],[Completed Story Points]]</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>44849</v>
+        <v>44877</v>
       </c>
       <c r="C14" s="4">
-        <f>C2/14*2</f>
-        <v>4.2857142857142856</v>
+        <f>C2/16*4</f>
+        <v>5.5</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="11">
         <f>E13-Table2[[#This Row],[Completed Story Points]]</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>44850</v>
+        <v>44878</v>
       </c>
       <c r="C15" s="4">
-        <f>C2/14*1</f>
-        <v>2.1428571428571428</v>
-      </c>
-      <c r="D15" s="12"/>
+        <f>C2/16*3</f>
+        <v>4.125</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2</v>
+      </c>
       <c r="E15" s="11">
         <f>E14-Table2[[#This Row],[Completed Story Points]]</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>44851</v>
+        <v>44879</v>
       </c>
       <c r="C16" s="4">
-        <f>C2/14*0</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="13"/>
+        <f>C2/16*2</f>
+        <v>2.75</v>
+      </c>
+      <c r="D16" s="12"/>
       <c r="E16" s="11">
         <f>E15-Table2[[#This Row],[Completed Story Points]]</f>
-        <v>9</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="3">
+        <v>44880</v>
+      </c>
+      <c r="C17" s="4">
+        <f>C2/16*1</f>
+        <v>1.375</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11">
+        <f>E16-Table2[[#This Row],[Completed Story Points]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="3">
+        <v>44881</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2</v>
+      </c>
+      <c r="E18" s="11">
+        <f>E17-Table2[[#This Row],[Completed Story Points]]</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
